--- a/excel/class_notes/Reference Functions.xlsx
+++ b/excel/class_notes/Reference Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\class_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE3C5E-4F0E-4337-B816-4F48C5A6D0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08402956-0342-4597-8A1F-90A65B9287F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{63EC13C7-3BBE-4D44-9D59-C2D27938C413}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{63EC13C7-3BBE-4D44-9D59-C2D27938C413}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -774,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB83257-6FDF-4C0C-9B32-BD09659FFD4C}">
   <dimension ref="A1:A210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A210"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1643,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0FBF3A-2CB8-47A0-B3D0-979D14CE6F7D}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -1686,6 +1708,12 @@
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="str">
+        <f ca="1">OFFSET(A1, 0, 1)</f>
+        <v>Price</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1727,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1722,7 +1750,10 @@
       <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" cm="1">
+        <f t="array" ref="C2">SUM(A2:A4 * B2:B4)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
@@ -1731,7 +1762,10 @@
       <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" cm="1">
+        <f t="array" ref="C3">SUM(A3:A5 * B3:B5)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
@@ -1740,7 +1774,10 @@
       <c r="B4" s="2">
         <v>30</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" cm="1">
+        <f t="array" ref="C4">SUM(A4:A6 * B4:B6)</f>
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
